--- a/data/Fall2023/Changed missing values and alpha comparisons/DB2/DB2 Comparrisons (missing vs not missing and changing alpha) .xlsx
+++ b/data/Fall2023/Changed missing values and alpha comparisons/DB2/DB2 Comparrisons (missing vs not missing and changing alpha) .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikki\Desktop\Research\Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{490A730E-A39D-4621-BF05-06B274A296D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90EF860-E0BD-4D14-8118-1FC4C9B69222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2129298C-101F-4385-BEF7-088C750FC47E}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -78,25 +78,7 @@
     <t>No Missing (0.002)</t>
   </si>
   <si>
-    <t>ABF1</t>
-  </si>
-  <si>
-    <t>ACE2</t>
-  </si>
-  <si>
-    <t>AFT2</t>
-  </si>
-  <si>
-    <t>ASF1</t>
-  </si>
-  <si>
-    <t>ASH1</t>
-  </si>
-  <si>
     <t>CIN5</t>
-  </si>
-  <si>
-    <t>GCN4</t>
   </si>
   <si>
     <t>GLN3</t>
@@ -246,9 +228,6 @@
     <t>Standard Dev</t>
   </si>
   <si>
-    <t>Difference for values with same alpha (no missing - missing)</t>
-  </si>
-  <si>
     <t>GCR2</t>
   </si>
   <si>
@@ -263,12 +242,18 @@
   <si>
     <t>SWI5</t>
   </si>
+  <si>
+    <t>Difference for values with different alpha no missing (0.002 - 0.02)</t>
+  </si>
+  <si>
+    <t>Difference for values with different alpha missing (0.002 - 0.02)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +292,14 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -352,9 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -449,10 +440,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -755,528 +742,525 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="12.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="7" width="26.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="G1" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>26</v>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>0.97582109908080839</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3">
         <v>1.4312722896730807</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3">
         <v>0.9419350553994531</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3">
         <v>1.5956515761657253</v>
       </c>
-      <c r="G3" s="9">
-        <f>B3-C3</f>
-        <v>-0.45545119059227235</v>
-      </c>
-      <c r="H3" s="9">
-        <f>D3-E3</f>
-        <v>-0.65371652076627218</v>
-      </c>
-      <c r="I3" s="9">
-        <f>B3-D3</f>
+      <c r="G3">
+        <f>ABS(B3-C3)</f>
+        <v>0.45545119059227235</v>
+      </c>
+      <c r="H3">
+        <f>ABS(D3-E3)</f>
+        <v>0.65371652076627218</v>
+      </c>
+      <c r="I3">
+        <f>ABS(B3-D3)</f>
         <v>3.3886043681355282E-2</v>
       </c>
-      <c r="J3" s="9">
-        <f>C3-E3</f>
-        <v>-0.16437928649264455</v>
+      <c r="J3">
+        <f>ABS(C3-E3)</f>
+        <v>0.16437928649264455</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
         <v>0.24430238074519944</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>0.22555016595617125</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4">
         <v>0.24280920845424384</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4">
         <v>0.22511629019568102</v>
       </c>
-      <c r="G4" s="9">
-        <f t="shared" ref="G4:G16" si="0">B4-C4</f>
+      <c r="G4">
+        <f t="shared" ref="G4:G16" si="0">ABS(B4-C4)</f>
         <v>1.8752214789028193E-2</v>
       </c>
-      <c r="H4" s="9">
-        <f t="shared" ref="H4:H16" si="1">D4-E4</f>
+      <c r="H4">
+        <f t="shared" ref="H4:H16" si="1">ABS(D4-E4)</f>
         <v>1.7692918258562812E-2</v>
       </c>
-      <c r="I4" s="9">
-        <f t="shared" ref="I4:I16" si="2">B4-D4</f>
+      <c r="I4">
+        <f t="shared" ref="I4:I16" si="2">ABS(B4-D4)</f>
         <v>1.4931722909556078E-3</v>
       </c>
-      <c r="J4" s="9">
-        <f t="shared" ref="J4:J16" si="3">C4-E4</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J16" si="3">ABS(C4-E4)</f>
         <v>4.3387576049022658E-4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>0.34314544913912137</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>0.41826062021181237</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5">
         <v>0.34211005758394375</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5">
         <v>0.41758938876100471</v>
       </c>
-      <c r="G5" s="9">
-        <f t="shared" si="0"/>
-        <v>-7.5115171072691E-2</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>7.5115171072691E-2</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>-7.547933117706096E-2</v>
-      </c>
-      <c r="I5" s="9">
+        <v>7.547933117706096E-2</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
         <v>1.0353915551776227E-3</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5">
         <f t="shared" si="3"/>
         <v>6.7123145080766333E-4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>0.69510194838364558</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>1.1026744900253913</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6">
         <v>0.69809182692141281</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6">
         <v>1.0784253139839497</v>
       </c>
-      <c r="G6" s="9">
-        <f t="shared" si="0"/>
-        <v>-0.40757254164174572</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.40757254164174572</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>-0.38033348706253689</v>
-      </c>
-      <c r="I6" s="9">
+        <v>0.38033348706253689</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>-2.989878537767221E-3</v>
-      </c>
-      <c r="J6" s="9">
+        <v>2.989878537767221E-3</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="3"/>
         <v>2.4249176041441611E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>0.40258066690050975</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>0.48470002693335185</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>0.40227789512549339</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7">
         <v>0.51121069369409156</v>
       </c>
-      <c r="G7" s="9">
-        <f t="shared" si="0"/>
-        <v>-8.2119360032842093E-2</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>8.2119360032842093E-2</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>-0.10893279856859817</v>
-      </c>
-      <c r="I7" s="9">
+        <v>0.10893279856859817</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
         <v>3.0277177501636388E-4</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7">
         <f t="shared" si="3"/>
-        <v>-2.651066676073971E-2</v>
+        <v>2.651066676073971E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
         <v>0.27327316797205664</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>0.27251333953562112</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>0.27328917605942271</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8">
         <v>0.27248600633023473</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>7.5982843643551679E-4</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>8.0316972918798024E-4</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8">
         <f t="shared" si="2"/>
-        <v>-1.6008087366070622E-5</v>
-      </c>
-      <c r="J8" s="9">
+        <v>1.6008087366070622E-5</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="3"/>
         <v>2.7333205386392834E-5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5">
         <v>1.6909172275728008</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>2.3112131450815667</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>1.6108465394731659</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9">
         <v>2.1532646739733017</v>
       </c>
-      <c r="G9" s="9">
-        <f t="shared" si="0"/>
-        <v>-0.62029591750876589</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.62029591750876589</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>-0.54241813450013576</v>
-      </c>
-      <c r="I9" s="9">
+        <v>0.54241813450013576</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
         <v>8.0070688099634912E-2</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9">
         <f t="shared" si="3"/>
         <v>0.15794847110826504</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
         <v>0.21215693767063912</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10">
         <v>0.29682814877629377</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10">
         <v>0.21190339812937228</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10">
         <v>0.29582851631362134</v>
       </c>
-      <c r="G10" s="9">
-        <f t="shared" si="0"/>
-        <v>-8.4671211105654648E-2</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>8.4671211105654648E-2</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="1"/>
-        <v>-8.3925118184249053E-2</v>
-      </c>
-      <c r="I10" s="9">
+        <v>8.3925118184249053E-2</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="2"/>
         <v>2.5353954126683398E-4</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10">
         <f t="shared" si="3"/>
         <v>9.9963246267242845E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>0.91591416428504113</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11">
         <v>0.92945240457557943</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>0.92516632233495155</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11">
         <v>1.4091173243002335</v>
       </c>
-      <c r="G11" s="9">
-        <f t="shared" si="0"/>
-        <v>-1.3538240290538295E-2</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.3538240290538295E-2</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
-        <v>-0.48395100196528196</v>
-      </c>
-      <c r="I11" s="9">
+        <v>0.48395100196528196</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="2"/>
-        <v>-9.2521580499104195E-3</v>
-      </c>
-      <c r="J11" s="9">
+        <v>9.2521580499104195E-3</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="3"/>
-        <v>-0.47966491972465408</v>
+        <v>0.47966491972465408</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12">
         <v>0.2496655284526694</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12">
         <v>0.34083117258280726</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>0.25786943149016162</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12">
         <v>0.60607808055488532</v>
       </c>
-      <c r="G12" s="9">
-        <f t="shared" si="0"/>
-        <v>-9.1165644130137863E-2</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>9.1165644130137863E-2</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
-        <v>-0.34820864906472371</v>
-      </c>
-      <c r="I12" s="9">
+        <v>0.34820864906472371</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="2"/>
-        <v>-8.2039030374922162E-3</v>
-      </c>
-      <c r="J12" s="9">
+        <v>8.2039030374922162E-3</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="3"/>
-        <v>-0.26524690797207806</v>
+        <v>0.26524690797207806</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>0.66698982878637714</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13">
         <v>0.30932086051963237</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>0.65756347151143002</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13">
         <v>0.33533580577890137</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>0.35766896826674477</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>0.32222766573252865</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13">
         <f t="shared" si="2"/>
         <v>9.4263572749471169E-3</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13">
         <f t="shared" si="3"/>
-        <v>-2.6014945259269007E-2</v>
+        <v>2.6014945259269007E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="9">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14">
         <v>0.22158328320403392</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>0.25314659460281358</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>0.22124825754442715</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="5">
         <v>1.1526217759216184</v>
       </c>
-      <c r="G14" s="9">
-        <f t="shared" si="0"/>
-        <v>-3.1563311398779659E-2</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>3.1563311398779659E-2</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
-        <v>-0.93137351837719129</v>
-      </c>
-      <c r="I14" s="9">
+        <v>0.93137351837719129</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="2"/>
         <v>3.3502565960677466E-4</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14">
         <f t="shared" si="3"/>
-        <v>-0.89947518131880488</v>
+        <v>0.89947518131880488</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
         <v>0.40117357788282426</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>1.8747510132351231</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15">
         <v>0.37983099368237511</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="5">
         <v>1.877663610221544</v>
       </c>
-      <c r="G15" s="9">
-        <f t="shared" si="0"/>
-        <v>-1.4735774353522988</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1.4735774353522988</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
-        <v>-1.4978326165391689</v>
-      </c>
-      <c r="I15" s="9">
+        <v>1.4978326165391689</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="2"/>
         <v>2.1342584200449155E-2</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15">
         <f t="shared" si="3"/>
-        <v>-2.91259698642099E-3</v>
+        <v>2.91259698642099E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="9">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
         <v>0.8692323728199961</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16">
         <v>1.4887270862159356</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16">
         <v>0.82236126526826414</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16">
         <v>1.3766329365906202</v>
       </c>
-      <c r="G16" s="9">
-        <f t="shared" si="0"/>
-        <v>-0.61949471339593953</v>
-      </c>
-      <c r="H16" s="9">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.61949471339593953</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>-0.55427167132235611</v>
-      </c>
-      <c r="I16" s="9">
+        <v>0.55427167132235611</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="2"/>
         <v>4.6871107551731961E-2</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16">
         <f t="shared" si="3"/>
         <v>0.11209414962531539</v>
       </c>
@@ -1293,94 +1277,94 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G19" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="F20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20">
         <f>AVERAGE(G3:G16)</f>
-        <v>-0.25552740893067555</v>
-      </c>
-      <c r="H20" s="9">
+        <v>0.30941041057241964</v>
+      </c>
+      <c r="H20">
         <f>AVERAGE(H3:H16)</f>
-        <v>-0.37997993527194968</v>
-      </c>
-      <c r="I20" s="9">
+        <v>0.42865475723198954</v>
+      </c>
+      <c r="I20" s="8">
         <f>AVERAGE(I3:I16)</f>
-        <v>1.2468195279828979E-2</v>
-      </c>
-      <c r="J20" s="9">
+        <v>1.5391330667334112E-2</v>
+      </c>
+      <c r="J20" s="8">
         <f>AVERAGE(J3:J16)</f>
-        <v>-0.11198433106144519</v>
+        <v>0.15433059815492786</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="F21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21">
         <f>MEDIAN(G3:G16)</f>
-        <v>-8.339528556924837E-2</v>
-      </c>
-      <c r="H21" s="9">
+        <v>8.7918427617896255E-2</v>
+      </c>
+      <c r="H21">
         <f>MEDIAN(H3:H16)</f>
-        <v>-0.3642710680636303</v>
-      </c>
-      <c r="I21" s="9">
+        <v>0.3642710680636303</v>
+      </c>
+      <c r="I21">
         <f>MEDIAN(I3:I16)</f>
-        <v>6.8520860739219869E-4</v>
-      </c>
-      <c r="J21" s="9">
+        <v>5.5968907876297186E-3</v>
+      </c>
+      <c r="J21">
         <f>MEDIAN(J3:J16)</f>
-        <v>-1.4426318905172986E-3</v>
+        <v>2.6262806010004358E-2</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="F22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="9" cm="1">
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" cm="1">
         <f t="array" ref="G22">MIN(IF(G3:G18&lt;&gt;0,ABS(G3:G18)))</f>
         <v>7.5982843643551679E-4</v>
       </c>
-      <c r="H22" s="9" cm="1">
+      <c r="H22" cm="1">
         <f t="array" ref="H22">MIN(IF(H3:H18&lt;&gt;0,ABS(H3:H18)))</f>
         <v>8.0316972918798024E-4</v>
       </c>
-      <c r="I22" s="9" cm="1">
+      <c r="I22" cm="1">
         <f t="array" ref="I22">MIN(IF(I3:I18&lt;&gt;0,ABS(I3:I18)))</f>
         <v>1.6008087366070622E-5</v>
       </c>
-      <c r="J22" s="9" cm="1">
+      <c r="J22" cm="1">
         <f t="array" ref="J22">MIN(IF(J3:J18&lt;&gt;0,ABS(J3:J18)))</f>
         <v>2.7333205386392834E-5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="F23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="9" cm="1">
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" cm="1">
         <f t="array" ref="G23">MAX(ABS((G3:G16)))</f>
         <v>1.4735774353522988</v>
       </c>
-      <c r="H23" s="9" cm="1">
+      <c r="H23" cm="1">
         <f t="array" ref="H23">MAX(ABS((H3:H16)))</f>
         <v>1.4978326165391689</v>
       </c>
-      <c r="I23" s="9" cm="1">
+      <c r="I23" cm="1">
         <f t="array" ref="I23">MAX(ABS((I3:I16)))</f>
         <v>8.0070688099634912E-2</v>
       </c>
-      <c r="J23" s="9" cm="1">
+      <c r="J23" cm="1">
         <f t="array" ref="J23">MAX(ABS((J3:J16)))</f>
         <v>0.89947518131880488</v>
       </c>
@@ -1401,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA9E5C8-F865-4E7B-9150-88C9C8EE00B2}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1421,18 +1405,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="G1" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J1" s="6"/>
     </row>
@@ -1453,21 +1437,21 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0.11095414820787515</v>
@@ -1482,25 +1466,25 @@
         <v>-0.26212343307763525</v>
       </c>
       <c r="G3">
-        <f>B3-C3</f>
+        <f>ABS(B3-C3)</f>
         <v>0.43976623474692283</v>
       </c>
       <c r="H3">
-        <f>D3-E3</f>
+        <f>ABS(D3-E3)</f>
         <v>0.44421256196451725</v>
       </c>
       <c r="I3">
-        <f>B3-D3</f>
-        <v>-7.1134980679006851E-2</v>
+        <f>ABS(B3-D3)</f>
+        <v>7.1134980679006851E-2</v>
       </c>
       <c r="J3">
-        <f>C3-E3</f>
-        <v>-6.668865346141245E-2</v>
+        <f>ABS(C3-E3)</f>
+        <v>6.668865346141245E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1515,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G16" si="0">B4-C4</f>
+        <f t="shared" ref="G4:G16" si="0">ABS(B4-C4)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H16" si="1">D4-E4</f>
+        <f t="shared" ref="H4:H15" si="1">ABS(D4-E4)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:J16" si="2">B4-D4</f>
+        <f t="shared" ref="I4:I16" si="2">ABS(B4-D4)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J4:J16" si="3">ABS(C4-E4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>-1.121761733483422E-2</v>
@@ -1549,24 +1533,24 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>-0.72500512776351134</v>
+        <v>0.72500512776351134</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>-0.73545730892411765</v>
+        <v>0.73545730892411765</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>-5.5317277964502904E-3</v>
+        <v>5.5317277964502904E-3</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
-        <v>-1.5983908957056592E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.5983908957056592E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0.43999477812061705</v>
@@ -1582,24 +1566,24 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>-2.0851803947832801</v>
+        <v>2.0851803947832801</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>-1.8018634021481006</v>
+        <v>1.8018634021481006</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
         <v>8.1682001394596526E-2</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3649989940297762</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1.5374868272641065</v>
@@ -1615,24 +1599,24 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>-0.12571526004220202</v>
+        <v>0.12571526004220202</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>-0.20143096353133916</v>
+        <v>0.20143096353133916</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
         <v>2.6620420420997437E-3</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
-        <v>-7.3053661447037399E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.3053661447037399E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>-3.5889518192478001E-2</v>
@@ -1648,24 +1632,24 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>-1.0949266533588072E-2</v>
+        <v>1.0949266533588072E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>-1.0567881095930855E-2</v>
+        <v>1.0567881095930855E-2</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>-3.5391559448059995E-4</v>
+        <v>3.5391559448059995E-4</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.746984317661752E-5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>-0.95031201128246046</v>
@@ -1689,16 +1673,16 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>-9.162604567148569E-2</v>
+        <v>9.162604567148569E-2</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
-        <v>-0.16242696633272358</v>
+        <f t="shared" si="3"/>
+        <v>0.16242696633272358</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>0.26441962645741612</v>
@@ -1714,24 +1698,24 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>-0.79952167159315368</v>
+        <v>0.79952167159315368</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>-0.80957389074100417</v>
+        <v>0.80957389074100417</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
         <v>7.8970783575973424E-3</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
-        <v>-2.1551407902531405E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.1551407902531405E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0.20705792187759831</v>
@@ -1747,7 +1731,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-0.59167601857923191</v>
+        <v>0.59167601857923191</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -1758,13 +1742,13 @@
         <v>2.6542202941703869E-2</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6464691324314791</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>0.18345276111994413</v>
@@ -1780,24 +1764,24 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>-0.56510881184007511</v>
+        <v>0.56510881184007511</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>-1.2927486010492601</v>
+        <v>1.2927486010492601</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
         <v>6.5512520952563325E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
-        <v>-0.66212726825662171</v>
+        <f t="shared" si="3"/>
+        <v>0.66212726825662171</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>-0.12142400086726794</v>
@@ -1821,32 +1805,32 @@
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>-2.389802537639342E-2</v>
+        <v>2.389802537639342E-2</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
-        <v>-0.1567121853355119</v>
+        <f t="shared" si="3"/>
+        <v>0.1567121853355119</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>4.0497406559032924E-2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>1.0776203128607726</v>
       </c>
       <c r="D14">
         <v>4.9423460502027089E-2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>-0.53207429119087835</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>-1.0371229063017398</v>
+        <v>1.0371229063017398</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -1854,27 +1838,27 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>-8.9260539429941652E-3</v>
+        <v>8.9260539429941652E-3</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6096946040516511</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
         <v>0.38064621579888175</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>-1.7663357143760248</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>0.40268246819641279</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>-1.8024734715378226</v>
       </c>
       <c r="G15">
@@ -1887,16 +1871,16 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>-2.2036252397531042E-2</v>
+        <v>2.2036252397531042E-2</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.613775716179779E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>0.22343016333972229</v>
@@ -1915,16 +1899,16 @@
         <v>0.56105225223437827</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f>ABS(D16-E16)</f>
         <v>0.47283721623863451</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>-1.4297375783757338E-2</v>
+        <v>1.4297375783757338E-2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
-        <v>-0.1025124117795011</v>
+        <f t="shared" si="3"/>
+        <v>0.1025124117795011</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
@@ -1939,59 +1923,59 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G19" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G20">
         <f>AVERAGE(G3:G16)</f>
-        <v>-0.11640717994365082</v>
+        <v>0.73220417111874647</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:J20" si="3">AVERAGE(H3:H16)</f>
-        <v>5.9962555250013545E-2</v>
+        <f t="shared" ref="H20:J20" si="4">AVERAGE(H3:H16)</f>
+        <v>0.75305427631997812</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
-        <v>-3.8220379681098995E-3</v>
+        <f t="shared" si="4"/>
+        <v>3.0150015923618583E-2</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
-        <v>0.17254769722555449</v>
+        <f t="shared" si="4"/>
+        <v>0.34992772527699989</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G21">
         <f>MEDIAN(G3:G16)</f>
-        <v>-6.8332263287895045E-2</v>
+        <v>0.58138926053473117</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:J21" si="4">MEDIAN(H3:H16)</f>
-        <v>0.2214093172155519</v>
+        <f t="shared" ref="H21:J21" si="5">MEDIAN(H3:H16)</f>
+        <v>0.54892127885545383</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
-        <v>-2.9428216954654452E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.816681409064419E-2</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
-        <v>-9.0695248736548661E-3</v>
+        <f t="shared" si="5"/>
+        <v>8.778303661326925E-2</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G22" cm="1">
         <f t="array" ref="G22">MIN(ABS(G3:G16))</f>
@@ -2012,7 +1996,7 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G23" cm="1">
         <f t="array" ref="G23">MAX(ABS((G3:G16)))</f>
@@ -2047,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140E906F-1F88-43EF-9A2D-D9A3440087B5}">
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB33" sqref="AB33"/>
+    <sheetView topLeftCell="A46" zoomScale="78" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2062,7 +2046,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2081,7 +2065,7 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="S1" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
@@ -2102,101 +2086,101 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="T2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" t="s">
         <v>10</v>
       </c>
-      <c r="U2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AC2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" t="s">
         <v>12</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AG2" t="s">
         <v>13</v>
-      </c>
-      <c r="X2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2243,7 +2227,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="S3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -2290,7 +2274,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2337,7 +2321,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -2384,7 +2368,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2431,7 +2415,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="S5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -2478,7 +2462,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>7.1573826206932187E-2</v>
@@ -2525,7 +2509,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="S6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T6">
         <v>0.14751321888723312</v>
@@ -2572,7 +2556,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2619,7 +2603,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="S7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2666,7 +2650,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2713,7 +2697,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="S8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2760,7 +2744,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2807,7 +2791,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="S9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2854,7 +2838,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2901,7 +2885,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="S10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2948,7 +2932,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>-6.1652216175909297E-2</v>
@@ -2995,7 +2979,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="S11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T11">
         <v>-6.1378069585554959E-2</v>
@@ -3042,7 +3026,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>-0.28712365475626156</v>
@@ -3089,7 +3073,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="S12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="T12">
         <v>-0.23161806753038197</v>
@@ -3136,7 +3120,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3183,7 +3167,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="S13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -3230,7 +3214,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3277,7 +3261,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="S14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -3324,7 +3308,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>0.2432893343088586</v>
@@ -3371,7 +3355,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="S15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T15">
         <v>0.18165460940550121</v>
@@ -3418,7 +3402,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3465,7 +3449,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="S16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -3551,7 +3535,7 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3570,7 +3554,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="S20" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
@@ -3591,103 +3575,103 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="K21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" t="s">
+      <c r="O21" t="s">
         <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" t="s">
-        <v>19</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="S21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="T21" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V21" t="s">
+        <v>6</v>
+      </c>
+      <c r="W21" t="s">
+        <v>7</v>
+      </c>
+      <c r="X21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB21" t="s">
         <v>10</v>
       </c>
-      <c r="U21" t="s">
-        <v>62</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="AC21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF21" t="s">
         <v>12</v>
       </c>
-      <c r="W21" t="s">
+      <c r="AG21" t="s">
         <v>13</v>
-      </c>
-      <c r="X21" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>19</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3734,7 +3718,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="S22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -3783,7 +3767,7 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3830,7 +3814,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="S23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -3879,7 +3863,7 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3926,7 +3910,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="S24" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -3975,7 +3959,7 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>3.1865194317558222E-2</v>
@@ -4022,7 +4006,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="S25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T25">
         <v>6.5449455119696798E-2</v>
@@ -4071,7 +4055,7 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4118,7 +4102,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="S26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -4167,7 +4151,7 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4214,7 +4198,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="S27" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -4263,7 +4247,7 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4310,7 +4294,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="S28" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -4359,7 +4343,7 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4406,7 +4390,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="S29" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -4455,7 +4439,7 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>-6.8813005849881481E-2</v>
@@ -4502,7 +4486,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="S30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T30">
         <v>-0.12049748519840234</v>
@@ -4551,7 +4535,7 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B31">
         <v>-0.30448756484662337</v>
@@ -4598,7 +4582,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="S31" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="T31">
         <v>-0.21321951227621766</v>
@@ -4647,7 +4631,7 @@
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4694,7 +4678,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="S32" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -4743,7 +4727,7 @@
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4790,7 +4774,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="S33" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -4839,7 +4823,7 @@
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>0.24198708538438077</v>
@@ -4886,7 +4870,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="S34" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T34">
         <v>0.17612174262627814</v>
@@ -4935,7 +4919,7 @@
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4982,7 +4966,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="S35" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -5103,7 +5087,7 @@
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -5122,7 +5106,7 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="S39" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
@@ -5143,103 +5127,103 @@
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="I40" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="K40" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="M40" t="s">
+        <v>59</v>
+      </c>
+      <c r="N40" t="s">
         <v>12</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="O40" t="s">
         <v>13</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="S40" t="s">
-        <v>32</v>
-      </c>
-      <c r="T40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T40" t="s">
         <v>5</v>
       </c>
-      <c r="U40" s="1" t="s">
+      <c r="U40" t="s">
+        <v>55</v>
+      </c>
+      <c r="V40" t="s">
         <v>6</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="W40" t="s">
         <v>7</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="X40" t="s">
         <v>8</v>
       </c>
-      <c r="X40" s="1" t="s">
+      <c r="Y40" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z40" t="s">
         <v>9</v>
       </c>
-      <c r="Y40" s="1" t="s">
+      <c r="AA40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB40" t="s">
         <v>10</v>
       </c>
-      <c r="Z40" s="1" t="s">
+      <c r="AC40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD40" t="s">
         <v>11</v>
       </c>
-      <c r="AA40" s="1" t="s">
+      <c r="AE40" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF40" t="s">
         <v>12</v>
       </c>
-      <c r="AB40" s="1" t="s">
+      <c r="AG40" t="s">
         <v>13</v>
-      </c>
-      <c r="AC40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG40" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B41">
         <f>B22-B3</f>
@@ -5298,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T41">
         <f>T22-T3</f>
@@ -5359,7 +5343,7 @@
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <f t="shared" ref="B42:O54" si="2">B23-B4</f>
@@ -5418,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="T42">
         <f t="shared" ref="T42:AG42" si="3">T23-T4</f>
@@ -5479,7 +5463,7 @@
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
@@ -5538,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43:AG43" si="4">T24-T5</f>
@@ -5599,7 +5583,7 @@
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B44">
         <f t="shared" si="2"/>
@@ -5641,7 +5625,7 @@
         <f t="shared" si="0"/>
         <v>-0.11554819048539355</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="5">
         <f t="shared" si="0"/>
         <v>0.14579395283999919</v>
       </c>
@@ -5658,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T44">
         <f>T25-T6</f>
@@ -5719,7 +5703,7 @@
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
@@ -5778,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T45">
         <f t="shared" ref="T45:AG45" si="6">T26-T7</f>
@@ -5839,7 +5823,7 @@
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <f t="shared" si="2"/>
@@ -5898,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46:AG46" si="7">T27-T8</f>
@@ -5959,7 +5943,7 @@
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <f t="shared" si="2"/>
@@ -6018,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T47">
         <f t="shared" ref="T47:AG47" si="8">T28-T9</f>
@@ -6079,7 +6063,7 @@
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <f t="shared" si="2"/>
@@ -6138,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="T48">
         <f t="shared" ref="T48:AG48" si="9">T29-T10</f>
@@ -6199,7 +6183,7 @@
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B49">
         <f t="shared" si="2"/>
@@ -6258,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T49">
         <f t="shared" ref="T49:AG49" si="10">T30-T11</f>
@@ -6319,7 +6303,7 @@
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <f t="shared" si="2"/>
@@ -6378,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="T50">
         <f t="shared" ref="T50:AG50" si="11">T31-T12</f>
@@ -6439,7 +6423,7 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <f t="shared" si="2"/>
@@ -6498,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="T51">
         <f t="shared" ref="T51:AG51" si="12">T32-T13</f>
@@ -6559,7 +6543,7 @@
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <f t="shared" si="2"/>
@@ -6618,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="T52">
         <f t="shared" ref="T52:AG52" si="13">T33-T14</f>
@@ -6652,7 +6636,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AB52">
+      <c r="AB52" s="5">
         <f t="shared" si="13"/>
         <v>-2.4202291001648613</v>
       </c>
@@ -6679,7 +6663,7 @@
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <f t="shared" si="2"/>
@@ -6738,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53:AG53" si="14">T34-T15</f>
@@ -6799,7 +6783,7 @@
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <f t="shared" si="2"/>
@@ -6858,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="T54">
         <f t="shared" ref="T54:AG54" si="15">T35-T16</f>
@@ -6927,7 +6911,7 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -6941,7 +6925,7 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="S58" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
@@ -6957,84 +6941,84 @@
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B59">
         <f>AVERAGE(B41:Q56)</f>
         <v>1.8091037514457759E-3</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D59">
         <f>MEDIAN(B41:Q56)</f>
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F59">
         <f>MIN(B41:Q56)</f>
         <v>-0.11554819048539355</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H59">
         <f>MAX(B41:Q56)</f>
         <v>0.14579395283999919</v>
       </c>
       <c r="I59" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J59" cm="1">
         <f t="array" ref="J59">MIN(IF(B41:P55&lt;&gt;0,ABS(B41:P55)))</f>
         <v>2.3993612134027426E-4</v>
       </c>
       <c r="K59" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L59" cm="1">
         <f t="array" ref="L59">MAX(ABS(B41:Q56))</f>
         <v>0.14579395283999919</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="T59">
         <f>AVERAGE(T41:AI56)</f>
         <v>-2.0733062921809525E-2</v>
       </c>
       <c r="U59" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="V59">
         <f>MEDIAN(T41:AI56)</f>
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="X59">
         <f>MIN(T41:AI56)</f>
         <v>-2.4202291001648613</v>
       </c>
       <c r="Y59" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Z59">
         <f>MAX(T41:AI56)</f>
         <v>0.29855175644025556</v>
       </c>
       <c r="AA59" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AB59" cm="1">
         <f t="array" ref="AB59">MIN(IF(T41:AH55&lt;&gt;0,ABS(T41:AH55)))</f>
         <v>1.9730831569763491E-4</v>
       </c>
       <c r="AC59" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AD59" cm="1">
         <f t="array" ref="AD59">MAX(ABS(T41:AI56))</f>
@@ -7043,7 +7027,7 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -7061,125 +7045,125 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
-      <c r="S61" s="7" t="s">
+      <c r="S61" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
-      <c r="Z61" s="7"/>
-      <c r="AA61" s="7"/>
-      <c r="AB61" s="7"/>
-      <c r="AC61" s="7"/>
-      <c r="AD61" s="7"/>
-      <c r="AE61" s="7"/>
-      <c r="AF61" s="7"/>
-      <c r="AG61" s="7"/>
-      <c r="AH61" s="7"/>
-      <c r="AI61" s="7"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AI61" s="6"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" t="s">
+        <v>57</v>
+      </c>
+      <c r="J62" t="s">
         <v>10</v>
       </c>
-      <c r="C62" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="K62" t="s">
+        <v>58</v>
+      </c>
+      <c r="L62" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" t="s">
+        <v>59</v>
+      </c>
+      <c r="N62" t="s">
         <v>12</v>
       </c>
-      <c r="E62" t="s">
+      <c r="O62" t="s">
         <v>13</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>63</v>
-      </c>
-      <c r="H62" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" t="s">
-        <v>64</v>
-      </c>
-      <c r="J62" t="s">
-        <v>16</v>
-      </c>
-      <c r="K62" t="s">
-        <v>65</v>
-      </c>
-      <c r="L62" t="s">
-        <v>17</v>
-      </c>
-      <c r="M62" t="s">
-        <v>66</v>
-      </c>
-      <c r="N62" t="s">
-        <v>18</v>
-      </c>
-      <c r="O62" t="s">
-        <v>19</v>
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="S62" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="T62" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" t="s">
+        <v>55</v>
+      </c>
+      <c r="V62" t="s">
+        <v>6</v>
+      </c>
+      <c r="W62" t="s">
+        <v>7</v>
+      </c>
+      <c r="X62" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB62" t="s">
         <v>10</v>
       </c>
-      <c r="U62" t="s">
-        <v>62</v>
-      </c>
-      <c r="V62" t="s">
+      <c r="AC62" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF62" t="s">
         <v>12</v>
       </c>
-      <c r="W62" t="s">
+      <c r="AG62" t="s">
         <v>13</v>
-      </c>
-      <c r="X62" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>19</v>
       </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B63">
         <f t="shared" ref="B63:B76" si="16">B22-T22</f>
@@ -7206,100 +7190,100 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <f t="shared" ref="H63:H76" si="22">H22-Z22</f>
+        <f>H22-Z22</f>
         <v>0.95816703366253608</v>
       </c>
       <c r="I63">
-        <f t="shared" ref="I63:I76" si="23">I22-AA22</f>
+        <f t="shared" ref="I63:I76" si="22">I22-AA22</f>
         <v>0</v>
       </c>
       <c r="J63">
-        <f t="shared" ref="J63:J76" si="24">J22-AB22</f>
+        <f t="shared" ref="J63:J76" si="23">J22-AB22</f>
         <v>0</v>
       </c>
       <c r="K63">
-        <f t="shared" ref="K63:K76" si="25">K22-AC22</f>
+        <f t="shared" ref="K63:K76" si="24">K22-AC22</f>
         <v>0</v>
       </c>
       <c r="L63">
-        <f t="shared" ref="L63:L76" si="26">L22-AD22</f>
+        <f t="shared" ref="L63:L76" si="25">L22-AD22</f>
         <v>0</v>
       </c>
       <c r="M63">
-        <f t="shared" ref="M63:M76" si="27">M22-AE22</f>
+        <f t="shared" ref="M63:M76" si="26">M22-AE22</f>
         <v>0</v>
       </c>
       <c r="N63">
-        <f t="shared" ref="N63:N76" si="28">N22-AF22</f>
+        <f t="shared" ref="N63:N76" si="27">N22-AF22</f>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" ref="O63:O76" si="29">O22-AG22</f>
+        <f t="shared" ref="O63:O76" si="28">O22-AG22</f>
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T63">
-        <f t="shared" ref="T63:T76" si="30">B3-T3</f>
+        <f t="shared" ref="T63:T76" si="29">B3-T3</f>
         <v>0</v>
       </c>
       <c r="U63">
-        <f t="shared" ref="U63:U76" si="31">C3-U3</f>
+        <f t="shared" ref="U63:U76" si="30">C3-U3</f>
         <v>0</v>
       </c>
       <c r="V63">
-        <f t="shared" ref="V63:V76" si="32">D3-V3</f>
+        <f t="shared" ref="V63:V76" si="31">D3-V3</f>
         <v>0</v>
       </c>
       <c r="W63">
-        <f t="shared" ref="W63:W76" si="33">E3-W3</f>
+        <f t="shared" ref="W63:W76" si="32">E3-W3</f>
         <v>0</v>
       </c>
       <c r="X63">
-        <f t="shared" ref="X63:X76" si="34">F3-X3</f>
+        <f t="shared" ref="X63:X76" si="33">F3-X3</f>
         <v>-0.11684755204287622</v>
       </c>
       <c r="Y63">
-        <f t="shared" ref="Y63:Y76" si="35">G3-Y3</f>
+        <f t="shared" ref="Y63:Y76" si="34">G3-Y3</f>
         <v>0</v>
       </c>
       <c r="Z63">
-        <f t="shared" ref="Z63:Z76" si="36">H3-Z3</f>
+        <f t="shared" ref="Z63:Z76" si="35">H3-Z3</f>
         <v>0.82897191168578366</v>
       </c>
       <c r="AA63">
-        <f t="shared" ref="AA63:AA76" si="37">I3-AA3</f>
+        <f t="shared" ref="AA63:AA76" si="36">I3-AA3</f>
         <v>0</v>
       </c>
       <c r="AB63">
-        <f t="shared" ref="AB63:AB76" si="38">J3-AB3</f>
+        <f t="shared" ref="AB63:AB76" si="37">J3-AB3</f>
         <v>0</v>
       </c>
       <c r="AC63">
-        <f t="shared" ref="AC63:AC76" si="39">K3-AC3</f>
+        <f t="shared" ref="AC63:AC76" si="38">K3-AC3</f>
         <v>0</v>
       </c>
       <c r="AD63">
-        <f t="shared" ref="AD63:AD76" si="40">L3-AD3</f>
+        <f t="shared" ref="AD63:AD76" si="39">L3-AD3</f>
         <v>0</v>
       </c>
       <c r="AE63">
-        <f t="shared" ref="AE63:AE76" si="41">M3-AE3</f>
+        <f t="shared" ref="AE63:AE76" si="40">M3-AE3</f>
         <v>0</v>
       </c>
       <c r="AF63">
-        <f t="shared" ref="AF63:AF76" si="42">N3-AF3</f>
+        <f t="shared" ref="AF63:AF76" si="41">N3-AF3</f>
         <v>0</v>
       </c>
       <c r="AG63">
-        <f t="shared" ref="AG63:AG76" si="43">O3-AG3</f>
+        <f t="shared" ref="AG63:AG76" si="42">O3-AG3</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B64">
         <f t="shared" si="16"/>
@@ -7326,100 +7310,100 @@
         <v>0</v>
       </c>
       <c r="H64">
+        <f t="shared" ref="H63:H76" si="43">H23-Z23</f>
+        <v>0</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O64">
+      <c r="S64" t="s">
+        <v>55</v>
+      </c>
+      <c r="T64">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="S64" t="s">
-        <v>62</v>
-      </c>
-      <c r="T64">
+      <c r="U64">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AA64">
+      <c r="AB64">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AB64">
+      <c r="AC64">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AC64">
+      <c r="AD64">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AD64">
+      <c r="AE64">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AE64">
+      <c r="AF64">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AF64">
+      <c r="AG64">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG64">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B65">
         <f t="shared" si="16"/>
@@ -7446,100 +7430,100 @@
         <v>0</v>
       </c>
       <c r="H65">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N65">
+        <v>-0.35027281332756044</v>
+      </c>
+      <c r="O65">
         <f t="shared" si="28"/>
-        <v>-0.35027281332756044</v>
-      </c>
-      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="S65" t="s">
+        <v>6</v>
+      </c>
+      <c r="T65">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="S65" t="s">
-        <v>12</v>
-      </c>
-      <c r="T65">
+      <c r="U65">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AA65">
+      <c r="AB65">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AB65">
+      <c r="AC65">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AC65">
+      <c r="AD65">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AD65">
+      <c r="AE65">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AE65">
+      <c r="AF65">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AF65">
+        <v>-0.34316520235318115</v>
+      </c>
+      <c r="AG65">
         <f t="shared" si="42"/>
-        <v>-0.34316520235318115</v>
-      </c>
-      <c r="AG65">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B66">
         <f t="shared" si="16"/>
@@ -7566,100 +7550,100 @@
         <v>0</v>
       </c>
       <c r="H66">
+        <f t="shared" si="43"/>
+        <v>-1.764140981104068</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="22"/>
-        <v>-1.764140981104068</v>
-      </c>
-      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K66">
+        <v>-0.13515026603028679</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="25"/>
-        <v>-0.13515026603028679</v>
-      </c>
-      <c r="L66">
+        <v>1.0406624782814198</v>
+      </c>
+      <c r="M66">
         <f t="shared" si="26"/>
-        <v>1.0406624782814198</v>
-      </c>
-      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O66">
+      <c r="S66" t="s">
+        <v>7</v>
+      </c>
+      <c r="T66">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="S66" t="s">
-        <v>13</v>
-      </c>
-      <c r="T66">
+        <v>-7.5939392680300935E-2</v>
+      </c>
+      <c r="U66">
         <f t="shared" si="30"/>
-        <v>-7.5939392680300935E-2</v>
-      </c>
-      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="X66">
+        <v>0.36171955182101395</v>
+      </c>
+      <c r="Y66">
         <f t="shared" si="34"/>
-        <v>0.36171955182101395</v>
-      </c>
-      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Z66">
+        <v>-1.8309786787813149</v>
+      </c>
+      <c r="AA66">
         <f t="shared" si="36"/>
-        <v>-1.8309786787813149</v>
-      </c>
-      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AB66">
+      <c r="AC66">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AC66">
+        <v>-0.40894663437169193</v>
+      </c>
+      <c r="AD66">
         <f t="shared" si="39"/>
-        <v>-0.40894663437169193</v>
-      </c>
-      <c r="AD66">
+        <v>1.1934202818816761</v>
+      </c>
+      <c r="AE66">
         <f t="shared" si="40"/>
-        <v>1.1934202818816761</v>
-      </c>
-      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AF66">
+      <c r="AG66">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG66">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <f t="shared" si="16"/>
@@ -7686,100 +7670,100 @@
         <v>0</v>
       </c>
       <c r="H67">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I67">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O67">
+      <c r="S67" t="s">
+        <v>8</v>
+      </c>
+      <c r="T67">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="S67" t="s">
-        <v>14</v>
-      </c>
-      <c r="T67">
+      <c r="U67">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="X67">
+        <v>0.13372489544830612</v>
+      </c>
+      <c r="Y67">
         <f t="shared" si="34"/>
-        <v>0.13372489544830612</v>
-      </c>
-      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Z67">
+      <c r="AA67">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AA67">
+      <c r="AB67">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AB67">
+      <c r="AC67">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AC67">
+      <c r="AD67">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AD67">
+      <c r="AE67">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AE67">
+      <c r="AF67">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AF67">
+      <c r="AG67">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG67">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B68">
         <f t="shared" si="16"/>
@@ -7806,100 +7790,100 @@
         <v>0</v>
       </c>
       <c r="H68">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O68">
+      <c r="S68" t="s">
+        <v>56</v>
+      </c>
+      <c r="T68">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="S68" t="s">
-        <v>63</v>
-      </c>
-      <c r="T68">
+      <c r="U68">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="V68">
+        <v>-1.8336286517934043E-2</v>
+      </c>
+      <c r="W68">
         <f t="shared" si="32"/>
-        <v>-1.8336286517934043E-2</v>
-      </c>
-      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="X68">
+      <c r="Y68">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y68">
+      <c r="Z68">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Z68">
+      <c r="AA68">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AA68">
+      <c r="AB68">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AB68">
+      <c r="AC68">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AC68">
+      <c r="AD68">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AD68">
+      <c r="AE68">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AE68">
+      <c r="AF68">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AF68">
+      <c r="AG68">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG68">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B69">
         <f t="shared" si="16"/>
@@ -7926,100 +7910,100 @@
         <v>0</v>
       </c>
       <c r="H69">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O69">
+      <c r="S69" t="s">
+        <v>9</v>
+      </c>
+      <c r="T69">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="S69" t="s">
-        <v>15</v>
-      </c>
-      <c r="T69">
+      <c r="U69">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="U69">
+        <v>1.0080183229244248</v>
+      </c>
+      <c r="V69">
         <f t="shared" si="31"/>
-        <v>1.0080183229244248</v>
-      </c>
-      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="X69">
+        <v>-1.5846876287346101E-2</v>
+      </c>
+      <c r="Y69">
         <f t="shared" si="34"/>
-        <v>-1.5846876287346101E-2</v>
-      </c>
-      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Z69">
+      <c r="AA69">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AA69">
+      <c r="AB69">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AB69">
+      <c r="AC69">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AC69">
+      <c r="AD69">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AD69">
+      <c r="AE69">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AE69">
+      <c r="AF69">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AF69">
+      <c r="AG69">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG69">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B70">
         <f t="shared" si="16"/>
@@ -8046,100 +8030,100 @@
         <v>0</v>
       </c>
       <c r="H70">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N70">
+        <v>-0.16885684454017702</v>
+      </c>
+      <c r="O70">
         <f t="shared" si="28"/>
-        <v>-0.16885684454017702</v>
-      </c>
-      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="S70" t="s">
+        <v>57</v>
+      </c>
+      <c r="T70">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="S70" t="s">
-        <v>64</v>
-      </c>
-      <c r="T70">
+      <c r="U70">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="X70">
+      <c r="Y70">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Z70">
+      <c r="AA70">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AA70">
+      <c r="AB70">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AB70">
+      <c r="AC70">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AC70">
+      <c r="AD70">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AD70">
+      <c r="AE70">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AE70">
+      <c r="AF70">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AF70">
+        <v>-0.15526343799506115</v>
+      </c>
+      <c r="AG70">
         <f t="shared" si="42"/>
-        <v>-0.15526343799506115</v>
-      </c>
-      <c r="AG70">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B71">
         <f t="shared" si="16"/>
@@ -8166,100 +8150,100 @@
         <v>0</v>
       </c>
       <c r="H71">
+        <f t="shared" si="43"/>
+        <v>0.93288361367711992</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="22"/>
-        <v>0.93288361367711992</v>
-      </c>
-      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K71">
+        <v>0.4285803144610737</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="25"/>
-        <v>0.4285803144610737</v>
-      </c>
-      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O71">
+      <c r="S71" t="s">
+        <v>10</v>
+      </c>
+      <c r="T71">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="S71" t="s">
-        <v>16</v>
-      </c>
-      <c r="T71">
+        <v>-2.7414659035433775E-4</v>
+      </c>
+      <c r="U71">
         <f t="shared" si="30"/>
-        <v>-2.7414659035433775E-4</v>
-      </c>
-      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y71">
+      <c r="Z71">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Z71">
+        <v>-0.32058658189209621</v>
+      </c>
+      <c r="AA71">
         <f t="shared" si="36"/>
-        <v>-0.32058658189209621</v>
-      </c>
-      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AB71">
+      <c r="AC71">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AC71">
+        <v>-0.10903253281076736</v>
+      </c>
+      <c r="AD71">
         <f t="shared" si="39"/>
-        <v>-0.10903253281076736</v>
-      </c>
-      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AE71">
+      <c r="AF71">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AF71">
+      <c r="AG71">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG71">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B72">
         <f t="shared" si="16"/>
@@ -8286,100 +8270,100 @@
         <v>0</v>
       </c>
       <c r="H72">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I72">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O72">
+      <c r="S72" t="s">
+        <v>58</v>
+      </c>
+      <c r="T72">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="S72" t="s">
-        <v>65</v>
-      </c>
-      <c r="T72">
+        <v>-5.5505587225879588E-2</v>
+      </c>
+      <c r="U72">
         <f t="shared" si="30"/>
-        <v>-5.5505587225879588E-2</v>
-      </c>
-      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="X72">
+      <c r="Y72">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Z72">
+      <c r="AA72">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AA72">
+      <c r="AB72">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AB72">
+      <c r="AC72">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AC72">
+      <c r="AD72">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AD72">
+      <c r="AE72">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AE72">
+      <c r="AF72">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AF72">
+      <c r="AG72">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG72">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B73">
         <f t="shared" si="16"/>
@@ -8406,100 +8390,100 @@
         <v>0</v>
       </c>
       <c r="H73">
+        <f t="shared" si="43"/>
+        <v>-0.31179216119744324</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="22"/>
-        <v>-0.31179216119744324</v>
-      </c>
-      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O73">
+      <c r="S73" t="s">
+        <v>11</v>
+      </c>
+      <c r="T73">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="S73" t="s">
-        <v>17</v>
-      </c>
-      <c r="T73">
+      <c r="U73">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y73">
+      <c r="Z73">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Z73">
+        <v>-0.32236461683824336</v>
+      </c>
+      <c r="AA73">
         <f t="shared" si="36"/>
-        <v>-0.32236461683824336</v>
-      </c>
-      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AB73">
+      <c r="AC73">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AC73">
+      <c r="AD73">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AD73">
+      <c r="AE73">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AE73">
+      <c r="AF73">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AF73">
+      <c r="AG73">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG73">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B74">
         <f t="shared" si="16"/>
@@ -8526,100 +8510,100 @@
         <v>0</v>
       </c>
       <c r="H74">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J74">
+        <v>1.9586469120151633</v>
+      </c>
+      <c r="K74">
         <f t="shared" si="24"/>
-        <v>1.9586469120151633</v>
-      </c>
-      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O74">
+      <c r="S74" t="s">
+        <v>59</v>
+      </c>
+      <c r="T74">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="S74" t="s">
-        <v>66</v>
-      </c>
-      <c r="T74">
+      <c r="U74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Z74">
+      <c r="AA74">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AA74">
+      <c r="AB74">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AB74">
+        <v>-0.47683488047126377</v>
+      </c>
+      <c r="AC74">
         <f t="shared" si="38"/>
-        <v>-0.47683488047126377</v>
-      </c>
-      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AD74">
+      <c r="AE74">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AE74">
+      <c r="AF74">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AF74">
+      <c r="AG74">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG74">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B75">
         <f t="shared" si="16"/>
@@ -8646,100 +8630,100 @@
         <v>0</v>
       </c>
       <c r="H75">
+        <f t="shared" si="43"/>
+        <v>0.68933460997994389</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="22"/>
-        <v>0.68933460997994389</v>
-      </c>
-      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K75">
+      <c r="L75" s="5">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L75">
+        <v>3.3361139119820851</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="26"/>
-        <v>3.3361139119820851</v>
-      </c>
-      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O75">
+      <c r="S75" t="s">
+        <v>12</v>
+      </c>
+      <c r="T75">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="S75" t="s">
-        <v>18</v>
-      </c>
-      <c r="T75">
+        <v>6.1634724903357391E-2</v>
+      </c>
+      <c r="U75">
         <f t="shared" si="30"/>
-        <v>6.1634724903357391E-2</v>
-      </c>
-      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Z75">
+        <v>0.57978771981927957</v>
+      </c>
+      <c r="AA75">
         <f t="shared" si="36"/>
-        <v>0.57978771981927957</v>
-      </c>
-      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AB75">
+      <c r="AC75">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AC75">
+      <c r="AD75" s="5">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AD75">
+        <v>3.3480744794186341</v>
+      </c>
+      <c r="AE75">
         <f t="shared" si="40"/>
-        <v>3.3480744794186341</v>
-      </c>
-      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AF75">
+      <c r="AG75">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG75">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B76">
         <f t="shared" si="16"/>
@@ -8766,94 +8750,94 @@
         <v>0</v>
       </c>
       <c r="H76">
+        <f t="shared" si="43"/>
+        <v>0.68936928277205944</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="22"/>
-        <v>0.68936928277205944</v>
-      </c>
-      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L76">
+        <v>0.30349931767229671</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="26"/>
-        <v>0.30349931767229671</v>
-      </c>
-      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O76">
+      <c r="S76" t="s">
+        <v>13</v>
+      </c>
+      <c r="T76">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="S76" t="s">
-        <v>19</v>
-      </c>
-      <c r="T76">
+      <c r="U76">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="X76">
+        <v>-7.7390258693109892E-2</v>
+      </c>
+      <c r="Y76">
         <f t="shared" si="34"/>
-        <v>-7.7390258693109892E-2</v>
-      </c>
-      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Z76">
+        <v>0.70160044638997587</v>
+      </c>
+      <c r="AA76">
         <f t="shared" si="36"/>
-        <v>0.70160044638997587</v>
-      </c>
-      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AB76">
+      <c r="AC76">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AC76">
+      <c r="AD76">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AD76">
+        <v>0.44111952747212002</v>
+      </c>
+      <c r="AE76">
         <f t="shared" si="40"/>
-        <v>0.44111952747212002</v>
-      </c>
-      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AF76">
+      <c r="AG76">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG76">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -8867,7 +8851,7 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -8881,7 +8865,7 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="S80" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
@@ -8897,84 +8881,84 @@
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B81">
         <f>AVERAGE(B63:Q78)</f>
         <v>4.4637876858016269E-2</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D81">
         <f>MEDIAN(B63:Q78)</f>
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F81">
         <f>MIN(B63:Q78)</f>
         <v>-1.764140981104068</v>
       </c>
       <c r="G81" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <f>MAX(B63:Q78)</f>
         <v>3.3361139119820851</v>
       </c>
       <c r="I81" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J81" cm="1">
         <f t="array" ref="J81">MIN(IF(B63:P77&lt;&gt;0,ABS(B63:P77)))</f>
         <v>1.4320122490361908E-3</v>
       </c>
       <c r="K81" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L81" cm="1">
         <f t="array" ref="L81">MAX(ABS(B63:Q78))</f>
         <v>3.3361139119820851</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="T81">
         <f>AVERAGE(T63:AI78)</f>
         <v>2.2095710184760971E-2</v>
       </c>
       <c r="U81" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="V81">
         <f>MEDIAN(T63:AI78)</f>
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="X81">
         <f>MIN(T63:AI78)</f>
         <v>-1.8309786787813149</v>
       </c>
       <c r="Y81" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Z81">
         <f>MAX(T63:AI78)</f>
         <v>3.3480744794186341</v>
       </c>
       <c r="AA81" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AB81" cm="1">
         <f t="array" ref="AB81">MIN(IF(T63:AH77&lt;&gt;0,ABS(T63:AH77)))</f>
         <v>2.7414659035433775E-4</v>
       </c>
       <c r="AC81" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AD81" cm="1">
         <f t="array" ref="AD81">MAX(ABS(T63:AI78))</f>
@@ -8983,18 +8967,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A80:L80"/>
+    <mergeCell ref="S58:AD58"/>
+    <mergeCell ref="S80:AD80"/>
+    <mergeCell ref="A61:Q61"/>
+    <mergeCell ref="S61:AI61"/>
+    <mergeCell ref="A58:L58"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="A20:Q20"/>
     <mergeCell ref="S20:AI20"/>
     <mergeCell ref="A39:Q39"/>
     <mergeCell ref="S39:AI39"/>
-    <mergeCell ref="A80:L80"/>
-    <mergeCell ref="S58:AD58"/>
-    <mergeCell ref="S80:AD80"/>
-    <mergeCell ref="A61:Q61"/>
-    <mergeCell ref="S61:AI61"/>
-    <mergeCell ref="A58:L58"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:Q18">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
@@ -9038,8 +9022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB81C8E-463B-43C7-8BE4-E5AB2005F27D}">
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="82" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9056,46 +9040,46 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0.677609077647504</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>0.67062404245787355</v>
       </c>
       <c r="D3">
         <v>0.66972554064254142</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="8">
         <v>0.66346662114235366</v>
       </c>
       <c r="F3">
@@ -9113,18 +9097,18 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0.60024411677863732</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>1.9156416899414954</v>
       </c>
       <c r="D4">
         <v>0.56432988664941797</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <v>1.8927758339288112</v>
       </c>
       <c r="F4">
@@ -9142,18 +9126,18 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0.49891335506259965</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>0.49891335506259965</v>
       </c>
       <c r="D5">
         <v>0.48839768804580391</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="8">
         <v>0.48839768804580391</v>
       </c>
       <c r="F5">
@@ -9171,18 +9155,18 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>22177</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>63902</v>
       </c>
       <c r="D6">
         <v>25836</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <v>53846</v>
       </c>
       <c r="F6">
@@ -9200,7 +9184,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -9209,7 +9193,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -9220,46 +9204,46 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G9" s="3"/>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0.73699982727243196</v>
@@ -9278,7 +9262,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>0.71556795811930685</v>
@@ -9298,7 +9282,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>0.55374970545051772</v>
@@ -9317,7 +9301,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J11">
         <v>0.4727245479855024</v>
@@ -9337,7 +9321,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>0.52761259175205311</v>
@@ -9356,7 +9340,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>0.50158393295450276</v>
@@ -9376,7 +9360,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>2.1021626238993547</v>
@@ -9395,7 +9379,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J13">
         <v>2.1302910382889939</v>
@@ -9415,7 +9399,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>0.63887493452754185</v>
@@ -9434,7 +9418,7 @@
       </c>
       <c r="G14" s="3"/>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J14">
         <v>0.64444603550699064</v>
@@ -9454,7 +9438,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>0.48482132600330652</v>
@@ -9473,7 +9457,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J15">
         <v>0.48168485299778602</v>
@@ -9493,7 +9477,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>0.53327627016458079</v>
@@ -9512,7 +9496,7 @@
       </c>
       <c r="G16" s="3"/>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J16">
         <v>0.52997141623548116</v>
@@ -9532,7 +9516,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0.22012131955151615</v>
@@ -9551,7 +9535,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J17">
         <v>0.2299935527436176</v>
@@ -9571,7 +9555,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>0.99023329139145511</v>
@@ -9590,7 +9574,7 @@
       </c>
       <c r="G18" s="3"/>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J18">
         <v>0.99092537804375991</v>
@@ -9610,7 +9594,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>1.7574070338793495</v>
@@ -9629,7 +9613,7 @@
       </c>
       <c r="G19" s="3"/>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J19">
         <v>1.7510270679785849</v>
@@ -9649,7 +9633,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>0.28205701390974192</v>
@@ -9668,7 +9652,7 @@
       </c>
       <c r="G20" s="3"/>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J20">
         <v>0.26251340699840359</v>
@@ -9688,7 +9672,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0.48250621268239935</v>
@@ -9707,7 +9691,7 @@
       </c>
       <c r="G21" s="3"/>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J21">
         <v>0.48530570806121381</v>
@@ -9727,7 +9711,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>0.91720296817724711</v>
@@ -9746,7 +9730,7 @@
       </c>
       <c r="G22" s="3"/>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J22">
         <v>0.88422635226419999</v>
@@ -9766,7 +9750,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>0.41944440045456199</v>
@@ -9785,7 +9769,7 @@
       </c>
       <c r="G23" s="3"/>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J23">
         <v>0.419848072432776</v>
@@ -9823,7 +9807,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -9832,7 +9816,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="I27" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -9843,47 +9827,47 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1"/>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>0.74843158997499737</v>
@@ -9902,7 +9886,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="I29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J29">
         <v>0.72261605203299817</v>
@@ -9923,7 +9907,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>0.54671839174855186</v>
@@ -9942,7 +9926,7 @@
       </c>
       <c r="G30" s="1"/>
       <c r="I30" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J30">
         <v>0.47105237323706234</v>
@@ -9963,7 +9947,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>0.52722090948962586</v>
@@ -9982,7 +9966,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="I31" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J31">
         <v>0.50085642445959444</v>
@@ -10003,7 +9987,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>2.1047229726904257</v>
@@ -10022,7 +10006,7 @@
       </c>
       <c r="G32" s="1"/>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J32">
         <v>2.1268255421886186</v>
@@ -10043,7 +10027,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>0.63842908297648071</v>
@@ -10062,7 +10046,7 @@
       </c>
       <c r="G33" s="1"/>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J33">
         <v>0.64482608129107188</v>
@@ -10083,7 +10067,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>0.48477512268269013</v>
@@ -10102,7 +10086,7 @@
       </c>
       <c r="G34" s="1"/>
       <c r="I34" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J34">
         <v>0.48162040577926979</v>
@@ -10123,7 +10107,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>0.5267949499429968</v>
@@ -10142,7 +10126,7 @@
       </c>
       <c r="G35" s="1"/>
       <c r="I35" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J35">
         <v>0.52631904157627341</v>
@@ -10163,7 +10147,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B36">
         <v>0.22025663857400821</v>
@@ -10182,7 +10166,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="I36" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J36">
         <v>0.23017691610548274</v>
@@ -10203,7 +10187,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>0.99075015757389662</v>
@@ -10222,7 +10206,7 @@
       </c>
       <c r="G37" s="1"/>
       <c r="I37" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J37">
         <v>0.98894311265970913</v>
@@ -10243,7 +10227,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>1.8460145495979177</v>
@@ -10262,7 +10246,7 @@
       </c>
       <c r="G38" s="1"/>
       <c r="I38" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J38">
         <v>1.8707056285536419</v>
@@ -10283,7 +10267,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>0.28095363458920164</v>
@@ -10302,7 +10286,7 @@
       </c>
       <c r="G39" s="1"/>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J39">
         <v>0.26224000701721661</v>
@@ -10323,7 +10307,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B40">
         <v>0.48318430731764089</v>
@@ -10342,7 +10326,7 @@
       </c>
       <c r="G40" s="1"/>
       <c r="I40" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J40">
         <v>0.46060892628924549</v>
@@ -10363,7 +10347,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0.92309652407077591</v>
@@ -10382,7 +10366,7 @@
       </c>
       <c r="G41" s="1"/>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J41">
         <v>0.88389100041515201</v>
@@ -10403,7 +10387,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0.43317445876940225</v>
@@ -10422,7 +10406,7 @@
       </c>
       <c r="G42" s="1"/>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J42">
         <v>0.43068364956026833</v>
@@ -10475,7 +10459,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -10484,7 +10468,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="I46" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -10495,47 +10479,47 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G47" s="1"/>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M47" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N47" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B48">
         <f>B29-B10</f>
@@ -10558,7 +10542,7 @@
         <v>1.241271420690937E-2</v>
       </c>
       <c r="I48" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J48">
         <f>J29-J10</f>
@@ -10583,7 +10567,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <f t="shared" ref="B49:F61" si="4">B30-B11</f>
@@ -10606,7 +10590,7 @@
         <v>-4.7133569420756416E-3</v>
       </c>
       <c r="I49" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J49">
         <f t="shared" ref="J49:N61" si="5">J30-J11</f>
@@ -10631,7 +10615,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B50">
         <f t="shared" si="4"/>
@@ -10654,7 +10638,7 @@
         <v>-4.2358174759171696E-4</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J50">
         <f t="shared" si="5"/>
@@ -10679,7 +10663,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <f t="shared" si="4"/>
@@ -10702,7 +10686,7 @@
         <v>-4.378612499525314E-3</v>
       </c>
       <c r="I51" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J51">
         <f t="shared" si="5"/>
@@ -10727,7 +10711,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B52">
         <f t="shared" si="4"/>
@@ -10750,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J52">
         <f t="shared" si="5"/>
@@ -10775,7 +10759,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <f t="shared" si="4"/>
@@ -10798,7 +10782,7 @@
         <v>8.7413804341629486E-6</v>
       </c>
       <c r="I53" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J53">
         <f t="shared" si="5"/>
@@ -10823,7 +10807,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B54">
         <f t="shared" si="4"/>
@@ -10846,7 +10830,7 @@
         <v>-6.4295024549613222E-3</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J54">
         <f t="shared" si="5"/>
@@ -10871,7 +10855,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <f t="shared" si="4"/>
@@ -10894,7 +10878,7 @@
         <v>2.3400659251016087E-4</v>
       </c>
       <c r="I55" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J55">
         <f t="shared" si="5"/>
@@ -10919,7 +10903,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B56">
         <f t="shared" si="4"/>
@@ -10942,7 +10926,7 @@
         <v>1.1875422863161234E-4</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J56">
         <f t="shared" si="5"/>
@@ -10967,7 +10951,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <f t="shared" si="4"/>
@@ -10990,7 +10974,7 @@
         <v>-7.7837047813029414E-2</v>
       </c>
       <c r="I57" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J57">
         <f t="shared" si="5"/>
@@ -11015,7 +10999,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <f t="shared" si="4"/>
@@ -11038,7 +11022,7 @@
         <v>-4.6823947436845925E-3</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J58">
         <f t="shared" si="5"/>
@@ -11063,7 +11047,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <f t="shared" si="4"/>
@@ -11086,7 +11070,7 @@
         <v>1.8319362042034659E-3</v>
       </c>
       <c r="I59" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J59">
         <f t="shared" si="5"/>
@@ -11111,7 +11095,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B60">
         <f t="shared" si="4"/>
@@ -11134,7 +11118,7 @@
         <v>-2.8480488036700113E-3</v>
       </c>
       <c r="I60" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J60">
         <f t="shared" si="5"/>
@@ -11159,7 +11143,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B61">
         <f t="shared" si="4"/>
@@ -11182,7 +11166,7 @@
         <v>-2.839448064723582E-3</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J61">
         <f t="shared" si="5"/>
@@ -11215,7 +11199,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -11224,7 +11208,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="I65" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -11235,46 +11219,46 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J66" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K66" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L66" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M66" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N66" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O66" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -11337,7 +11321,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -11360,714 +11344,714 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F70" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G70" s="1"/>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J70" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K70" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L70" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M70" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N70" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B71">
-        <f>B29-B10</f>
-        <v>1.1431762702565407E-2</v>
+        <f>J29-B29</f>
+        <v>-2.58155379419992E-2</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:F71" si="6">C29-C10</f>
-        <v>-1.1837965500000019E-2</v>
+        <f t="shared" ref="C71:G71" si="6">K29-C29</f>
+        <v>0</v>
       </c>
       <c r="D71">
         <f t="shared" si="6"/>
-        <v>1.5786132600686953E-3</v>
+        <v>4.9046647661057374E-3</v>
       </c>
       <c r="E71">
         <f t="shared" si="6"/>
-        <v>5.3686589367063497E-3</v>
+        <v>-5.14078881297515E-2</v>
       </c>
       <c r="F71">
         <f t="shared" si="6"/>
-        <v>1.241271420690937E-2</v>
+        <v>4.2234624763596296E-3</v>
       </c>
       <c r="I71" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J71">
-        <f>J29-J10</f>
-        <v>7.0480939136913223E-3</v>
+        <f>J10-B10</f>
+        <v>-2.1431869153125116E-2</v>
       </c>
       <c r="K71">
-        <f t="shared" ref="K71:N71" si="7">K29-K10</f>
-        <v>-1.1837965500000019E-2</v>
+        <f t="shared" ref="K71:N71" si="7">K10-C10</f>
+        <v>0</v>
       </c>
       <c r="L71">
         <f t="shared" si="7"/>
-        <v>6.604434582278107E-3</v>
+        <v>-1.2115655610367426E-4</v>
       </c>
       <c r="M71">
         <f t="shared" si="7"/>
-        <v>-1.0457326762485009E-2</v>
+        <v>-3.5581902430560142E-2</v>
       </c>
       <c r="N71">
         <f t="shared" si="7"/>
-        <v>1.1817818486595466E-2</v>
+        <v>4.8183581966735334E-3</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B72">
-        <f t="shared" ref="B72:F72" si="8">B30-B11</f>
-        <v>-7.0313137019658578E-3</v>
+        <f t="shared" ref="B72:B86" si="8">J30-B30</f>
+        <v>-7.5666018511489519E-2</v>
       </c>
       <c r="C72">
-        <f t="shared" si="8"/>
-        <v>-9.8545269151059101E-3</v>
+        <f t="shared" ref="C71:G86" si="9">K30-C30</f>
+        <v>-0.11058270589106556</v>
       </c>
       <c r="D72">
-        <f t="shared" si="8"/>
-        <v>-6.7481595649721893E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.7169836467470621E-2</v>
       </c>
       <c r="E72">
-        <f t="shared" si="8"/>
-        <v>8.8740113282610444E-3</v>
+        <f t="shared" si="9"/>
+        <v>0.11998496099942679</v>
       </c>
       <c r="F72">
-        <f t="shared" si="8"/>
-        <v>-4.7133569420756416E-3</v>
+        <f t="shared" si="9"/>
+        <v>-4.7006897140934034E-2</v>
       </c>
       <c r="I72" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:N72" si="9">J30-J11</f>
-        <v>-1.6721747484400584E-3</v>
+        <f t="shared" ref="J72:J84" si="10">J11-B11</f>
+        <v>-8.1025157465015318E-2</v>
       </c>
       <c r="K72">
-        <f t="shared" si="9"/>
-        <v>-2.5625582491527465E-3</v>
+        <f t="shared" ref="K72:K84" si="11">K11-C11</f>
+        <v>-0.11787467455701872</v>
       </c>
       <c r="L72">
-        <f t="shared" si="9"/>
-        <v>-6.84137663396861E-2</v>
+        <f t="shared" ref="L72:L84" si="12">L11-D11</f>
+        <v>2.8102007157434827E-2</v>
       </c>
       <c r="M72">
-        <f t="shared" si="9"/>
-        <v>3.2922782647735183E-3</v>
+        <f t="shared" ref="M72:M84" si="13">M11-E11</f>
+        <v>0.12556669406291432</v>
       </c>
       <c r="N72">
-        <f t="shared" si="9"/>
-        <v>-9.4147513868447774E-4</v>
+        <f t="shared" ref="N72:N84" si="14">N11-F11</f>
+        <v>-5.0778778944325198E-2</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:F73" si="10">B31-B12</f>
-        <v>-3.916822624272509E-4</v>
+        <f t="shared" si="8"/>
+        <v>-2.6364485030031415E-2</v>
       </c>
       <c r="C73">
+        <f t="shared" si="9"/>
+        <v>1.9933993789793159E-2</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="9"/>
+        <v>-1.314509706110914E-2</v>
+      </c>
+      <c r="F73" s="9">
+        <f t="shared" si="9"/>
+        <v>-1.0661548774338392E-2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="10"/>
-        <v>2.5874116436308547E-4</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="10"/>
-        <v>-2.5871123309254007E-4</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="10"/>
-        <v>-4.2358174759171696E-4</v>
-      </c>
-      <c r="I73" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73">
-        <f t="shared" ref="J73:N73" si="11">J31-J12</f>
-        <v>-7.2750849490832437E-4</v>
+        <v>-2.6028658797550341E-2</v>
       </c>
       <c r="K73">
         <f t="shared" si="11"/>
-        <v>-6.2980562501857573E-4</v>
+        <v>2.082254057917482E-2</v>
       </c>
       <c r="L73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M73">
-        <f t="shared" si="11"/>
-        <v>-4.8979451090516712E-4</v>
+        <f t="shared" si="13"/>
+        <v>-1.2914013783296513E-2</v>
       </c>
       <c r="N73">
-        <f t="shared" si="11"/>
-        <v>-4.8555854932985643E-4</v>
+        <f t="shared" si="14"/>
+        <v>-1.0599571972600252E-2</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:F74" si="12">B32-B13</f>
-        <v>2.5603487910710321E-3</v>
+        <f t="shared" si="8"/>
+        <v>2.2102569498192892E-2</v>
       </c>
       <c r="C74">
+        <f t="shared" si="9"/>
+        <v>2.2217451274462396E-2</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="9"/>
+        <v>-0.13226072812152068</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="9">
+        <f t="shared" si="9"/>
+        <v>5.1362586640069097E-4</v>
+      </c>
+      <c r="I74" t="s">
+        <v>7</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="10"/>
+        <v>2.81284143896392E-2</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="11"/>
+        <v>1.6270644922390831E-2</v>
+      </c>
+      <c r="L74">
         <f t="shared" si="12"/>
-        <v>3.4065486805257006E-3</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="12"/>
-        <v>2.3096126653245674E-2</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="12"/>
-        <v>-4.378612499525314E-3</v>
-      </c>
-      <c r="I74" t="s">
-        <v>13</v>
-      </c>
-      <c r="J74">
-        <f t="shared" ref="J74:N74" si="13">J32-J13</f>
-        <v>-3.465496100375276E-3</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="13"/>
-        <v>9.3533550325972659E-3</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="13"/>
-        <v>1.9852432053196978E-2</v>
+        <v>-0.12901703352147198</v>
       </c>
       <c r="M74">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N74">
-        <f t="shared" si="13"/>
-        <v>-4.0896435519559571E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.246569188313341E-4</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B75">
-        <f t="shared" ref="B75:F75" si="14">B33-B14</f>
-        <v>-4.4585155106113827E-4</v>
+        <f t="shared" si="8"/>
+        <v>6.3969983145911735E-3</v>
       </c>
       <c r="C75">
+        <f t="shared" si="9"/>
+        <v>-7.2674694076958479E-3</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="9"/>
+        <v>4.118316925875054E-3</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="9"/>
+        <v>-5.9544697018947268E-3</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="10"/>
+        <v>5.5711009794487953E-3</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="11"/>
+        <v>-1.6120952146336798E-4</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="12"/>
+        <v>3.0412052364745534E-3</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="13"/>
+        <v>-9.5658137499232687E-3</v>
+      </c>
+      <c r="N75">
         <f t="shared" si="14"/>
-        <v>4.0947629689525034E-4</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="14"/>
-        <v>-1.8795679052319159E-4</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="14"/>
-        <v>4.9119507726702594E-4</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I75" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75">
-        <f t="shared" ref="J75:N75" si="15">J33-J14</f>
-        <v>3.800457840812399E-4</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="15"/>
-        <v>-6.6967835893372296E-3</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="15"/>
-        <v>8.8915489887730903E-4</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="15"/>
-        <v>4.1025391252955679E-3</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76:F76" si="16">B34-B15</f>
-        <v>-4.620332061638921E-5</v>
+        <f t="shared" si="8"/>
+        <v>-3.1547169034203404E-3</v>
       </c>
       <c r="C76">
-        <f t="shared" si="16"/>
-        <v>4.1218371580331592E-6</v>
+        <f t="shared" si="9"/>
+        <v>4.3478134975155625E-4</v>
       </c>
       <c r="D76">
-        <f t="shared" si="16"/>
-        <v>5.6527817028084737E-6</v>
+        <f t="shared" si="9"/>
+        <v>5.2929472300122793E-4</v>
       </c>
       <c r="E76">
-        <f t="shared" si="16"/>
-        <v>1.922712065074994E-5</v>
+        <f t="shared" si="9"/>
+        <v>1.4501626825207115E-3</v>
       </c>
       <c r="F76">
-        <f t="shared" si="16"/>
-        <v>8.7413804341629486E-6</v>
+        <f t="shared" si="9"/>
+        <v>1.4574076269935343E-4</v>
       </c>
       <c r="I76" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J76">
-        <f t="shared" ref="J76:N76" si="17">J34-J15</f>
-        <v>-6.4447218516228144E-5</v>
+        <f t="shared" si="10"/>
+        <v>-3.1364730055205015E-3</v>
       </c>
       <c r="K76">
-        <f t="shared" si="17"/>
-        <v>9.2883986004266283E-6</v>
+        <f t="shared" si="11"/>
+        <v>4.2961478830916278E-4</v>
       </c>
       <c r="L76">
-        <f t="shared" si="17"/>
-        <v>6.8436777256875025E-6</v>
+        <f t="shared" si="12"/>
+        <v>5.281038269783489E-4</v>
       </c>
       <c r="M76">
-        <f t="shared" si="17"/>
-        <v>2.6276248043438644E-5</v>
+        <f t="shared" si="13"/>
+        <v>1.4431135551280228E-3</v>
       </c>
       <c r="N76">
-        <f t="shared" si="17"/>
-        <v>1.4942447111476742E-5</v>
+        <f t="shared" si="14"/>
+        <v>1.3953969602203964E-4</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77:F77" si="18">B35-B16</f>
-        <v>-6.481320221583986E-3</v>
+        <f t="shared" si="8"/>
+        <v>-4.7590836672339876E-4</v>
       </c>
       <c r="C77">
-        <f t="shared" si="18"/>
-        <v>-2.4808551465116069E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.4144030878382896E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="18"/>
-        <v>-2.8243791876904067E-3</v>
+        <f t="shared" si="9"/>
+        <v>-1.2051715951188813E-2</v>
       </c>
       <c r="E77">
-        <f t="shared" si="18"/>
-        <v>-1.2715639319658134E-3</v>
+        <f t="shared" si="9"/>
+        <v>-9.9340474272308354E-3</v>
       </c>
       <c r="F77">
-        <f t="shared" si="18"/>
-        <v>-6.4295024549613222E-3</v>
+        <f t="shared" si="9"/>
+        <v>-4.3175768313939988E-3</v>
       </c>
       <c r="I77" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J77">
-        <f t="shared" ref="J77:N77" si="19">J35-J16</f>
-        <v>-3.6523746592077577E-3</v>
+        <f t="shared" si="10"/>
+        <v>-3.3048539290996271E-3</v>
       </c>
       <c r="K77">
-        <f t="shared" si="19"/>
-        <v>-3.0091914795500607E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.9427394208767435E-2</v>
       </c>
       <c r="L77">
-        <f t="shared" si="19"/>
-        <v>1.8625488011240199E-3</v>
+        <f t="shared" si="12"/>
+        <v>-1.6738643940003239E-2</v>
       </c>
       <c r="M77">
-        <f t="shared" si="19"/>
-        <v>2.1975203928697451E-3</v>
+        <f t="shared" si="13"/>
+        <v>-1.3403131752066394E-2</v>
       </c>
       <c r="N77">
-        <f t="shared" si="19"/>
-        <v>-5.5884126011557789E-3</v>
+        <f t="shared" si="14"/>
+        <v>-5.1586666851995422E-3</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B78">
-        <f t="shared" ref="B78:F78" si="20">B36-B17</f>
-        <v>1.3531902249205863E-4</v>
+        <f t="shared" si="8"/>
+        <v>9.9202775314745362E-3</v>
       </c>
       <c r="C78">
-        <f t="shared" si="20"/>
-        <v>-6.7271828988935134E-4</v>
+        <f t="shared" si="9"/>
+        <v>1.5079006410554818E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="20"/>
-        <v>5.0569179046289214E-4</v>
+        <f t="shared" si="9"/>
+        <v>-6.9381743692554121E-2</v>
       </c>
       <c r="E78">
-        <f t="shared" si="20"/>
-        <v>1.1434356933887058E-4</v>
+        <f t="shared" si="9"/>
+        <v>1.9879068000552419E-2</v>
       </c>
       <c r="F78">
-        <f t="shared" si="20"/>
-        <v>2.3400659251016087E-4</v>
+        <f t="shared" si="9"/>
+        <v>-7.7235282879035694E-3</v>
       </c>
       <c r="I78" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J78">
-        <f t="shared" ref="J78:N78" si="21">J36-J17</f>
-        <v>1.8336336186514091E-4</v>
+        <f t="shared" si="10"/>
+        <v>9.8722331921014539E-3</v>
       </c>
       <c r="K78">
-        <f t="shared" si="21"/>
-        <v>-7.1382092893967908E-4</v>
+        <f t="shared" si="11"/>
+        <v>1.5120109049605146E-2</v>
       </c>
       <c r="L78">
-        <f t="shared" si="21"/>
-        <v>-1.1788609505201109E-3</v>
+        <f t="shared" si="12"/>
+        <v>-6.7697190951571118E-2</v>
       </c>
       <c r="M78">
-        <f t="shared" si="21"/>
-        <v>2.1870742041069091E-4</v>
+        <f t="shared" si="13"/>
+        <v>1.9774704149480599E-2</v>
       </c>
       <c r="N78">
-        <f t="shared" si="21"/>
-        <v>2.3284727431249763E-4</v>
+        <f t="shared" si="14"/>
+        <v>-7.7223689697059061E-3</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79:F79" si="22">B37-B18</f>
-        <v>5.1686618244151106E-4</v>
+        <f t="shared" si="8"/>
+        <v>-1.8070449141874834E-3</v>
       </c>
       <c r="C79">
-        <f t="shared" si="22"/>
-        <v>-9.4525286012114851E-5</v>
+        <f t="shared" si="9"/>
+        <v>4.6602994834087919E-3</v>
       </c>
       <c r="D79">
-        <f t="shared" si="22"/>
-        <v>-1.1670214713517257E-3</v>
+        <f t="shared" si="9"/>
+        <v>2.184052647804946E-2</v>
       </c>
       <c r="E79">
-        <f t="shared" si="22"/>
-        <v>1.0583462817529976E-3</v>
+        <f t="shared" si="9"/>
+        <v>-1.5660502516721575E-2</v>
       </c>
       <c r="F79">
-        <f t="shared" si="22"/>
-        <v>1.1875422863161234E-4</v>
+        <f t="shared" si="9"/>
+        <v>6.7685338510095949E-2</v>
       </c>
       <c r="I79" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J79">
-        <f t="shared" ref="J79:N79" si="23">J37-J18</f>
-        <v>-1.9822653840507742E-3</v>
+        <f t="shared" si="10"/>
+        <v>6.9208665230480193E-4</v>
       </c>
       <c r="K79">
-        <f t="shared" si="23"/>
-        <v>-5.3600299334011225E-4</v>
+        <f t="shared" si="11"/>
+        <v>5.1017771907367893E-3</v>
       </c>
       <c r="L79">
-        <f t="shared" si="23"/>
-        <v>2.9825053214752151E-2</v>
+        <f t="shared" si="12"/>
+        <v>-9.1515482080544164E-3</v>
       </c>
       <c r="M79">
-        <f t="shared" si="23"/>
-        <v>-2.2724703084516573E-2</v>
+        <f t="shared" si="13"/>
+        <v>8.1225468495479958E-3</v>
       </c>
       <c r="N79">
-        <f t="shared" si="23"/>
-        <v>7.8500709350223907E-2</v>
+        <f t="shared" si="14"/>
+        <v>-1.0696616611496346E-2</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B80">
-        <f t="shared" ref="B80:F80" si="24">B38-B19</f>
-        <v>8.8607515718568175E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.4691078955724199E-2</v>
       </c>
       <c r="C80">
-        <f t="shared" si="24"/>
-        <v>1.396892726982002E-2</v>
+        <f t="shared" si="9"/>
+        <v>-5.8589672401380133E-3</v>
       </c>
       <c r="D80">
-        <f t="shared" si="24"/>
-        <v>-7.3807626174691665E-2</v>
+        <f t="shared" si="9"/>
+        <v>-1.3246891718629084E-2</v>
       </c>
       <c r="E80">
-        <f t="shared" si="24"/>
-        <v>-3.5825903848087648E-2</v>
+        <f t="shared" si="9"/>
+        <v>-1.9383127155485624E-3</v>
       </c>
       <c r="F80">
-        <f t="shared" si="24"/>
-        <v>-7.7837047813029414E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.1602776711332223E-2</v>
       </c>
       <c r="I80" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J80">
-        <f t="shared" ref="J80:N80" si="25">J38-J19</f>
-        <v>0.11967856057505699</v>
+        <f t="shared" si="10"/>
+        <v>-6.379965900764617E-3</v>
       </c>
       <c r="K80">
-        <f t="shared" si="25"/>
-        <v>9.4380125542065096E-3</v>
+        <f t="shared" si="11"/>
+        <v>-1.3280525245245034E-3</v>
       </c>
       <c r="L80">
-        <f t="shared" si="25"/>
-        <v>-9.127615984654075E-2</v>
+        <f t="shared" si="12"/>
+        <v>4.2216419532200011E-3</v>
       </c>
       <c r="M80">
-        <f t="shared" si="25"/>
-        <v>-3.6369987858001801E-2</v>
+        <f t="shared" si="13"/>
+        <v>-1.3942287056344094E-3</v>
       </c>
       <c r="N80">
-        <f t="shared" si="25"/>
-        <v>-9.0511248223211438E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.4276977121514247E-2</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B81">
-        <f t="shared" ref="B81:F81" si="26">B39-B20</f>
-        <v>-1.1033793205402764E-3</v>
+        <f t="shared" si="8"/>
+        <v>-1.8713627571985025E-2</v>
       </c>
       <c r="C81">
-        <f t="shared" si="26"/>
-        <v>-4.5710832015585678E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.2503112111727543E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="26"/>
-        <v>-1.0470620009118137E-3</v>
+        <f t="shared" si="9"/>
+        <v>-2.8519885409006185E-2</v>
       </c>
       <c r="E81">
-        <f t="shared" si="26"/>
-        <v>-1.6291293120026418E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.4662722003166585E-2</v>
       </c>
       <c r="F81">
-        <f t="shared" si="26"/>
-        <v>-4.6823947436845925E-3</v>
+        <f t="shared" si="9"/>
+        <v>2.189657406438586E-2</v>
       </c>
       <c r="I81" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J81">
-        <f t="shared" ref="J81:N81" si="27">J39-J20</f>
-        <v>-2.7339998118697251E-4</v>
+        <f t="shared" si="10"/>
+        <v>-1.9543606911338329E-2</v>
       </c>
       <c r="K81">
-        <f t="shared" si="27"/>
-        <v>-6.1158457950664991E-2</v>
+        <f t="shared" si="11"/>
+        <v>7.7950738046806856E-2</v>
       </c>
       <c r="L81">
-        <f t="shared" si="27"/>
-        <v>-5.6175293751548061E-4</v>
+        <f t="shared" si="12"/>
+        <v>-2.9005194472402518E-2</v>
       </c>
       <c r="M81">
-        <f t="shared" si="27"/>
-        <v>-2.1934706902734857E-2</v>
+        <f t="shared" si="13"/>
+        <v>4.0306135785875025E-2</v>
       </c>
       <c r="N81">
-        <f t="shared" si="27"/>
-        <v>3.5388616873237577E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.3675317633377509E-2</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B82">
-        <f t="shared" ref="B82:F82" si="28">B40-B21</f>
-        <v>6.7809463524154401E-4</v>
+        <f t="shared" si="8"/>
+        <v>-2.2575381028395403E-2</v>
       </c>
       <c r="C82">
-        <f t="shared" si="28"/>
-        <v>-3.487528473781365E-3</v>
+        <f t="shared" si="9"/>
+        <v>-4.6158934639776272E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="28"/>
-        <v>-2.3162344722132633E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.7456330105306579E-3</v>
       </c>
       <c r="E82">
-        <f t="shared" si="28"/>
-        <v>-3.8202199224657896E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.7151541827694516E-2</v>
       </c>
       <c r="F82">
-        <f t="shared" si="28"/>
-        <v>1.8319362042034659E-3</v>
+        <f t="shared" si="9"/>
+        <v>-2.3084907894159956E-2</v>
       </c>
       <c r="I82" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J82:N82" si="29">J40-J21</f>
-        <v>-2.4696781771968324E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.799495378814465E-3</v>
       </c>
       <c r="K82">
-        <f t="shared" si="29"/>
-        <v>-2.9814635243882504E-2</v>
+        <f t="shared" si="11"/>
+        <v>-1.9831827869675134E-2</v>
       </c>
       <c r="L82">
-        <f t="shared" si="29"/>
-        <v>-2.6786947560251628E-2</v>
+        <f t="shared" si="12"/>
+        <v>-1.2103017241166247E-4</v>
       </c>
       <c r="M82">
-        <f t="shared" si="29"/>
-        <v>-2.3071257416963642E-2</v>
+        <f t="shared" si="13"/>
+        <v>2.0206000200002627E-3</v>
       </c>
       <c r="N82">
-        <f t="shared" si="29"/>
-        <v>-1.2353796518765725E-2</v>
+        <f t="shared" si="14"/>
+        <v>-8.8991751711907652E-3</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B83">
-        <f t="shared" ref="B83:F83" si="30">B41-B22</f>
-        <v>5.8935558935288013E-3</v>
+        <f t="shared" si="8"/>
+        <v>-3.9205523655623908E-2</v>
       </c>
       <c r="C83">
-        <f t="shared" si="30"/>
-        <v>-1.0200860197882911E-2</v>
+        <f t="shared" si="9"/>
+        <v>-5.0371576050388778E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="30"/>
-        <v>-4.5345373020418966E-3</v>
+        <f t="shared" si="9"/>
+        <v>-2.8591487925530013E-3</v>
       </c>
       <c r="E83">
-        <f t="shared" si="30"/>
-        <v>5.9271272095846594E-3</v>
+        <f t="shared" si="9"/>
+        <v>-8.0830218878067794E-2</v>
       </c>
       <c r="F83">
-        <f t="shared" si="30"/>
-        <v>-2.8480488036700113E-3</v>
+        <f t="shared" si="9"/>
+        <v>-2.5509152076104324E-2</v>
       </c>
       <c r="I83" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J83">
-        <f t="shared" ref="J83:N83" si="31">J41-J22</f>
-        <v>-3.3535184904798232E-4</v>
+        <f t="shared" si="10"/>
+        <v>-3.2976615913047125E-2</v>
       </c>
       <c r="K83">
-        <f t="shared" si="31"/>
-        <v>-6.2040715871326535E-3</v>
+        <f t="shared" si="11"/>
+        <v>-5.4368364661139035E-2</v>
       </c>
       <c r="L83">
-        <f t="shared" si="31"/>
-        <v>3.3544928359897641E-3</v>
+        <f t="shared" si="12"/>
+        <v>-1.0748178930584662E-2</v>
       </c>
       <c r="M83">
-        <f t="shared" si="31"/>
-        <v>-3.432553971453367E-3</v>
+        <f t="shared" si="13"/>
+        <v>-7.1470537697029768E-2</v>
       </c>
       <c r="N83">
-        <f t="shared" si="31"/>
-        <v>-1.6116745216820938E-4</v>
+        <f t="shared" si="14"/>
+        <v>-2.8196033427606126E-2</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B84">
-        <f t="shared" ref="B84:F84" si="32">B42-B23</f>
-        <v>1.3730058314840254E-2</v>
+        <f t="shared" si="8"/>
+        <v>-2.4908092091339151E-3</v>
       </c>
       <c r="C84">
-        <f t="shared" si="32"/>
-        <v>1.9343486249812303E-2</v>
+        <f t="shared" si="9"/>
+        <v>-1.5443818023717082E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="32"/>
-        <v>-4.9805953725349683E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.0431701098904798E-2</v>
       </c>
       <c r="E84">
-        <f t="shared" si="32"/>
-        <v>4.5125217614673252E-2</v>
+        <f t="shared" si="9"/>
+        <v>-3.2617224328065575E-2</v>
       </c>
       <c r="F84">
-        <f t="shared" si="32"/>
-        <v>-2.839448064723582E-3</v>
+        <f t="shared" si="9"/>
+        <v>8.72468522256864E-4</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J84">
-        <f t="shared" ref="J84:N84" si="33">J42-J23</f>
-        <v>1.0835577127492335E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.0367197821400413E-4</v>
       </c>
       <c r="K84">
-        <f t="shared" si="33"/>
-        <v>1.1863797509880758E-2</v>
+        <f t="shared" si="11"/>
+        <v>-7.9641292837855371E-3</v>
       </c>
       <c r="L84">
-        <f t="shared" si="33"/>
-        <v>-3.7049078410063441E-2</v>
+        <f t="shared" si="12"/>
+        <v>7.6748257836185552E-3</v>
       </c>
       <c r="M84">
-        <f t="shared" si="33"/>
-        <v>4.5174267962623471E-2</v>
+        <f t="shared" si="13"/>
+        <v>-3.2666274676015794E-2</v>
       </c>
       <c r="N84">
-        <f t="shared" si="33"/>
-        <v>-5.2478887486995252E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.2809092062328071E-3</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -12080,7 +12064,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -12089,7 +12073,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="I88" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
@@ -12100,68 +12084,68 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C89" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D89" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J89" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K89" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L89" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M89" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N89" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O89" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <f>AVERAGE(B71:G86)</f>
-        <v>-3.9210316139621166E-3</v>
+        <v>-6.1809037194373601E-3</v>
       </c>
       <c r="B90">
         <f>STDEV(B71:G86)</f>
-        <v>2.2836051728843645E-2</v>
+        <v>3.6743123278431739E-2</v>
       </c>
       <c r="C90">
         <f>MEDIAN(B71:G86)</f>
-        <v>-7.036430331425203E-5</v>
+        <v>-1.8726788148680229E-3</v>
       </c>
       <c r="D90">
         <f>MIN(B71:G86)</f>
-        <v>-7.7837047813029414E-2</v>
+        <v>-0.13226072812152068</v>
       </c>
       <c r="E90">
         <f>MAX(B71:G86)</f>
-        <v>8.8607515718568175E-2</v>
+        <v>0.11998496099942679</v>
       </c>
       <c r="F90">
         <f>G71*-1</f>
@@ -12169,27 +12153,27 @@
       </c>
       <c r="G90" cm="1">
         <f t="array" ref="G90">MAX(ABS(B71:G86))</f>
-        <v>8.8607515718568175E-2</v>
+        <v>0.13226072812152068</v>
       </c>
       <c r="I90">
         <f>AVERAGE(J71:O86)</f>
-        <v>-3.8562868717897168E-3</v>
+        <v>-6.2456484616097603E-3</v>
       </c>
       <c r="J90">
         <f>STDEV(J71:O86)</f>
-        <v>2.8591362364093639E-2</v>
+        <v>3.5760839008370501E-2</v>
       </c>
       <c r="K90">
         <f>MEDIAN(J71:O86)</f>
-        <v>-4.8767653011751178E-4</v>
+        <v>-1.2109336425766837E-4</v>
       </c>
       <c r="L90">
         <f>MIN(J71:O86)</f>
-        <v>-9.127615984654075E-2</v>
+        <v>-0.12901703352147198</v>
       </c>
       <c r="M90">
         <f>MAX(J71:O86)</f>
-        <v>0.11967856057505699</v>
+        <v>0.12556669406291432</v>
       </c>
       <c r="N90">
         <f>O72</f>
@@ -12197,7 +12181,7 @@
       </c>
       <c r="O90" cm="1">
         <f t="array" ref="O90">MAX(ABS(J71:O86))</f>
-        <v>0.11967856057505699</v>
+        <v>0.12901703352147198</v>
       </c>
     </row>
   </sheetData>
@@ -12220,23 +12204,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="070f1269-45c1-4463-99ba-5dc4e57c7dff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DB5B7ED115EF04980BBFAFC51672553" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b8b27a01019c8f1f5f85cfa193824b14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="070f1269-45c1-4463-99ba-5dc4e57c7dff" xmlns:ns4="7bf50b4b-6300-445a-aea1-306a2291592c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63af16f05df1fbe665c061d280c7c480" ns3:_="" ns4:_="">
     <xsd:import namespace="070f1269-45c1-4463-99ba-5dc4e57c7dff"/>
@@ -12419,32 +12386,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20FA2A50-E890-4E3A-83BB-3BB40B247E64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="7bf50b4b-6300-445a-aea1-306a2291592c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="070f1269-45c1-4463-99ba-5dc4e57c7dff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D86A451-E88F-4AAB-A956-7F6F555EE94E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="070f1269-45c1-4463-99ba-5dc4e57c7dff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72507013-1949-460D-8B23-A89C54AA7D8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12461,4 +12420,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D86A451-E88F-4AAB-A956-7F6F555EE94E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20FA2A50-E890-4E3A-83BB-3BB40B247E64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7bf50b4b-6300-445a-aea1-306a2291592c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="070f1269-45c1-4463-99ba-5dc4e57c7dff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>